--- a/TestData/T2246_Contacts_DuplicateManagement_EditEmployeeRecordToMatchWithAnExistingEmployee.xlsx
+++ b/TestData/T2246_Contacts_DuplicateManagement_EditEmployeeRecordToMatchWithAnExistingEmployee.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HL\SalesForce_Project\SalesForce_Project\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SMittal0207\source\repos\SF_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DD56888-5A29-4657-83B9-0F2AA280FBFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B002C745-5327-422F-A494-5B9C2CB76AB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -69,9 +69,6 @@
     <t>ContactType</t>
   </si>
   <si>
-    <t>StandardTestCompany</t>
-  </si>
-  <si>
     <t>Test</t>
   </si>
   <si>
@@ -166,6 +163,9 @@
   </si>
   <si>
     <t>None</t>
+  </si>
+  <si>
+    <t>ActivityCompany</t>
   </si>
 </sst>
 </file>
@@ -506,8 +506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -532,7 +532,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>5</v>
@@ -544,57 +544,57 @@
         <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
       <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
         <v>19</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>7</v>
@@ -605,19 +605,19 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
       <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
         <v>17</v>
       </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
       <c r="E3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>7</v>
@@ -626,40 +626,40 @@
         <v>4</v>
       </c>
       <c r="H3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" t="s">
         <v>33</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>34</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>35</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>36</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>37</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>38</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>39</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>40</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
+        <v>44</v>
+      </c>
+      <c r="R3" t="s">
         <v>41</v>
       </c>
-      <c r="Q3" t="s">
-        <v>45</v>
-      </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>42</v>
-      </c>
-      <c r="S3" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/T2246_Contacts_DuplicateManagement_EditEmployeeRecordToMatchWithAnExistingEmployee.xlsx
+++ b/TestData/T2246_Contacts_DuplicateManagement_EditEmployeeRecordToMatchWithAnExistingEmployee.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SMittal0207\source\repos\SF_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B002C745-5327-422F-A494-5B9C2CB76AB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FEDE450-8EA5-4ED7-9FF8-39576DC5EEA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3624" yWindow="1500" windowWidth="19416" windowHeight="10740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Contact" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
   <si>
     <t>CompanyName</t>
   </si>
@@ -166,6 +166,9 @@
   </si>
   <si>
     <t>ActivityCompany</t>
+  </si>
+  <si>
+    <t>TestNew</t>
   </si>
 </sst>
 </file>
@@ -507,7 +510,7 @@
   <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -585,7 +588,7 @@
         <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
